--- a/Sistemas Operativos/Proyecto/Libro1.xlsx
+++ b/Sistemas Operativos/Proyecto/Libro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier\Desktop\RepoGitSchool\Sistemas Operativos\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{CCE486DC-6D3D-4B0F-B9C3-07520E08A81B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44271553-B311-4BF8-A629-1671F285CC5E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{0B6CEF1E-323C-433B-89EB-80FCE5C89156}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,20 +31,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>05</t>
+    <t>06</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>E0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A0733B-18FA-40A6-92C4-CEE6BA964318}">
-  <dimension ref="C2:E13"/>
+  <dimension ref="C2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,11 +441,11 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("RAM[",C2,"]=(byte)0x",D2,";")</f>
-        <v>RAM[0]=(byte)0x20;</v>
+        <v>RAM[0]=(byte)0x60;</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
@@ -420,8 +457,8 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E13" si="0">_xlfn.CONCAT("RAM[",C3,"]=(byte)0x",D3,";")</f>
-        <v>RAM[1]=(byte)0x05;</v>
+        <f t="shared" ref="E3:E41" si="0">_xlfn.CONCAT("RAM[",C3,"]=(byte)0x",D3,";")</f>
+        <v>RAM[1]=(byte)0x06;</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
@@ -429,25 +466,25 @@
         <f>1+C3</f>
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>43</v>
+      <c r="D4" t="s">
+        <v>2</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[2]=(byte)0x43;</v>
+        <v>RAM[2]=(byte)0xFE;</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5">
-        <f t="shared" ref="C5:C13" si="1">1+C4</f>
+        <f t="shared" ref="C5:C47" si="1">1+C4</f>
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>62</v>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("RAM[",C5,"]=(byte)0x",D5,";")</f>
-        <v>RAM[3]=(byte)0x62;</v>
+        <v>RAM[3]=(byte)0xAD;</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
@@ -455,12 +492,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>75</v>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[4]=(byte)0x75;</v>
+        <v>RAM[4]=(byte)0xB1;</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
@@ -468,12 +505,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>38</v>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[5]=(byte)0x38;</v>
+        <v>RAM[5]=(byte)0xC7;</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
@@ -482,11 +519,11 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[6]=(byte)0x21;</v>
+        <v>RAM[6]=(byte)0x60;</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
@@ -495,11 +532,11 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[7]=(byte)0x00;</v>
+        <v>RAM[7]=(byte)0x04;</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
@@ -508,11 +545,11 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[8]=(byte)0x43;</v>
+        <v>RAM[8]=(byte)0x49;</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
@@ -521,11 +558,11 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[9]=(byte)0x96;</v>
+        <v>RAM[9]=(byte)0x55;</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
@@ -534,11 +571,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[10]=(byte)0x00;</v>
+        <v>RAM[10]=(byte)0xC2;</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
@@ -546,15 +583,416 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
+      <c r="D13" s="1">
+        <v>40</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[11]=(byte)0x00;</v>
+        <v>RAM[11]=(byte)0x40;</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>47</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[12]=(byte)0x47;</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[13]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[14]=(byte)0x0;</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[15]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[16]=(byte)0x21;</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[17]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>49</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[18]=(byte)0x49;</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[19]=(byte)0x55;</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[20]=(byte)0xC1;</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[21]=(byte)0xE0;</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[22]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[23]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[24]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[25]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[26]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[27]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[28]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[29]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[30]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[31]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[32]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[33]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[34]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[35]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[36]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[37]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[38]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[39]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sistemas Operativos/Proyecto/Libro1.xlsx
+++ b/Sistemas Operativos/Proyecto/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier\Desktop\RepoGitSchool\Sistemas Operativos\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44271553-B311-4BF8-A629-1671F285CC5E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846E509A-7A14-442C-873B-9719D82CD79E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{0B6CEF1E-323C-433B-89EB-80FCE5C89156}"/>
   </bookViews>
@@ -31,55 +31,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="3">
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>06</t>
+    <t>01</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>E0</t>
+    <t>03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,10 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A0733B-18FA-40A6-92C4-CEE6BA964318}">
-  <dimension ref="C2:E47"/>
+  <dimension ref="C2:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E77" sqref="E2:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,12 +407,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>60</v>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("RAM[",C2,"]=(byte)0x",D2,";")</f>
-        <v>RAM[0]=(byte)0x60;</v>
+        <v>RAM[0]=(byte)0x00;</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
@@ -457,8 +424,8 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E41" si="0">_xlfn.CONCAT("RAM[",C3,"]=(byte)0x",D3,";")</f>
-        <v>RAM[1]=(byte)0x06;</v>
+        <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT("RAM[",C3,"]=(byte)0x",D3,";")</f>
+        <v>RAM[1]=(byte)0x01;</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
@@ -466,25 +433,25 @@
         <f>1+C3</f>
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[2]=(byte)0xFE;</v>
+        <v>RAM[2]=(byte)0x00;</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5">
-        <f t="shared" ref="C5:C47" si="1">1+C4</f>
+        <f t="shared" ref="C5:C68" si="1">1+C4</f>
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("RAM[",C5,"]=(byte)0x",D5,";")</f>
-        <v>RAM[3]=(byte)0xAD;</v>
+        <v>RAM[3]=(byte)0x01;</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
@@ -492,12 +459,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[4]=(byte)0xB1;</v>
+        <v>RAM[4]=(byte)0x00;</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
@@ -505,12 +472,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[5]=(byte)0xC7;</v>
+        <v>RAM[5]=(byte)0x01;</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
@@ -518,12 +485,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>60</v>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[6]=(byte)0x60;</v>
+        <v>RAM[6]=(byte)0x00;</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
@@ -532,11 +499,11 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[7]=(byte)0x04;</v>
+        <v>RAM[7]=(byte)0x01;</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
@@ -544,12 +511,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>49</v>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[8]=(byte)0x49;</v>
+        <v>RAM[8]=(byte)0x00;</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
@@ -557,12 +524,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>55</v>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[9]=(byte)0x55;</v>
+        <v>RAM[9]=(byte)0x01;</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
@@ -571,11 +538,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[10]=(byte)0xC2;</v>
+        <v>RAM[10]=(byte)0x00;</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
@@ -583,12 +550,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="1">
-        <v>40</v>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[11]=(byte)0x40;</v>
+        <v>RAM[11]=(byte)0x01;</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
@@ -596,12 +563,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D14" s="2">
-        <v>47</v>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[12]=(byte)0x47;</v>
+        <v>RAM[12]=(byte)0x00;</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
@@ -610,11 +577,11 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[13]=(byte)0x00;</v>
+        <v>RAM[13]=(byte)0x01;</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
@@ -623,11 +590,11 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[14]=(byte)0x0;</v>
+        <v>RAM[14]=(byte)0x00;</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -636,11 +603,11 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[15]=(byte)0x00;</v>
+        <v>RAM[15]=(byte)0x01;</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -648,12 +615,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>21</v>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[16]=(byte)0x21;</v>
+        <v>RAM[16]=(byte)0x00;</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
@@ -662,11 +629,11 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[17]=(byte)0x00;</v>
+        <v>RAM[17]=(byte)0x01;</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
@@ -674,12 +641,12 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D20">
-        <v>49</v>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[18]=(byte)0x49;</v>
+        <v>RAM[18]=(byte)0x00;</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
@@ -687,12 +654,12 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>55</v>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[19]=(byte)0x55;</v>
+        <v>RAM[19]=(byte)0x01;</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -700,12 +667,12 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[20]=(byte)0xC1;</v>
+        <v>RAM[20]=(byte)0x00;</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
@@ -713,12 +680,12 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[21]=(byte)0xE0;</v>
+        <v>RAM[21]=(byte)0x01;</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
@@ -740,11 +707,11 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[23]=(byte)0x00;</v>
+        <v>RAM[23]=(byte)0x01;</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
@@ -766,11 +733,11 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[25]=(byte)0x00;</v>
+        <v>RAM[25]=(byte)0x01;</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
@@ -792,11 +759,11 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[27]=(byte)0x00;</v>
+        <v>RAM[27]=(byte)0x01;</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
@@ -818,11 +785,11 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[29]=(byte)0x00;</v>
+        <v>RAM[29]=(byte)0x01;</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
@@ -844,11 +811,11 @@
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[31]=(byte)0x00;</v>
+        <v>RAM[31]=(byte)0x01;</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
@@ -870,11 +837,11 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[33]=(byte)0x00;</v>
+        <v>RAM[33]=(byte)0x01;</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
@@ -896,11 +863,11 @@
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[35]=(byte)0x00;</v>
+        <v>RAM[35]=(byte)0x01;</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
@@ -922,11 +889,11 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[37]=(byte)0x00;</v>
+        <v>RAM[37]=(byte)0x01;</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
@@ -948,11 +915,11 @@
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>RAM[39]=(byte)0x00;</v>
+        <v>RAM[39]=(byte)0x01;</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
@@ -960,35 +927,677 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[40]=(byte)0x00;</v>
+      </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[41]=(byte)0x01;</v>
+      </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[42]=(byte)0x00;</v>
+      </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[43]=(byte)0x01;</v>
+      </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[44]=(byte)0x00;</v>
+      </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" si="1"/>
         <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[45]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[46]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[47]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[48]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[49]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[50]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[51]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[52]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[53]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[54]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[55]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[56]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[57]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[58]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[59]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[60]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[61]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[62]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[63]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>RAM[64]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E83" si="2">_xlfn.CONCAT("RAM[",C67,"]=(byte)0x",D67,";")</f>
+        <v>RAM[65]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[66]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" ref="C69:C105" si="3">1+C68</f>
+        <v>67</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[67]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[68]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[69]=(byte)0x01;</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D72" s="1">
+        <v>20</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[70]=(byte)0x20;</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[71]=(byte)0x03;</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[72]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[73]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[74]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[75]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[76]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[77]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[78]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[79]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[80]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
+        <v>RAM[81]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
